--- a/src/assignment-4/gantt.xlsx
+++ b/src/assignment-4/gantt.xlsx
@@ -461,20 +461,74 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="11" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="7" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -482,18 +536,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -502,48 +544,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="11" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -957,7 +957,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:BO30"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1043,63 +1043,63 @@
       <c r="BO1" s="8"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>40</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="13" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="13" t="s">
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="20" t="s">
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="13" t="s">
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
       <c r="AQ2" s="8"/>
       <c r="AR2" s="8"/>
       <c r="AS2" s="8"/>
@@ -1127,277 +1127,277 @@
       <c r="BO2" s="8"/>
     </row>
     <row r="3" spans="2:67" s="4" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="30"/>
-      <c r="BL3" s="30"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="30"/>
-      <c r="BO3" s="30"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="19"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="19"/>
+      <c r="BK3" s="19"/>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="19"/>
+      <c r="BN3" s="19"/>
+      <c r="BO3" s="19"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33">
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="20">
         <v>1</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="20">
         <v>2</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="20">
         <v>3</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="20">
         <v>4</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="20">
         <v>5</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="20">
         <v>6</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="20">
         <v>7</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="20">
         <v>8</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="20">
         <v>9</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="20">
         <v>10</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="20">
         <v>11</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="20">
         <v>12</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="20">
         <v>13</v>
       </c>
-      <c r="U4" s="33">
+      <c r="U4" s="20">
         <v>14</v>
       </c>
-      <c r="V4" s="33">
+      <c r="V4" s="20">
         <v>15</v>
       </c>
-      <c r="W4" s="33">
+      <c r="W4" s="20">
         <v>16</v>
       </c>
-      <c r="X4" s="33">
+      <c r="X4" s="20">
         <v>17</v>
       </c>
-      <c r="Y4" s="33">
+      <c r="Y4" s="20">
         <v>18</v>
       </c>
-      <c r="Z4" s="33">
+      <c r="Z4" s="20">
         <v>19</v>
       </c>
-      <c r="AA4" s="33">
+      <c r="AA4" s="20">
         <v>20</v>
       </c>
-      <c r="AB4" s="33">
+      <c r="AB4" s="20">
         <v>21</v>
       </c>
-      <c r="AC4" s="33">
+      <c r="AC4" s="20">
         <v>22</v>
       </c>
-      <c r="AD4" s="33">
+      <c r="AD4" s="20">
         <v>23</v>
       </c>
-      <c r="AE4" s="33">
+      <c r="AE4" s="20">
         <v>24</v>
       </c>
-      <c r="AF4" s="33">
+      <c r="AF4" s="20">
         <v>25</v>
       </c>
-      <c r="AG4" s="33">
+      <c r="AG4" s="20">
         <v>26</v>
       </c>
-      <c r="AH4" s="33">
+      <c r="AH4" s="20">
         <v>27</v>
       </c>
-      <c r="AI4" s="33">
+      <c r="AI4" s="20">
         <v>28</v>
       </c>
-      <c r="AJ4" s="33">
+      <c r="AJ4" s="20">
         <v>29</v>
       </c>
-      <c r="AK4" s="33">
+      <c r="AK4" s="20">
         <v>30</v>
       </c>
-      <c r="AL4" s="33">
+      <c r="AL4" s="20">
         <v>31</v>
       </c>
-      <c r="AM4" s="33">
+      <c r="AM4" s="20">
         <v>32</v>
       </c>
-      <c r="AN4" s="33">
+      <c r="AN4" s="20">
         <v>33</v>
       </c>
-      <c r="AO4" s="33">
+      <c r="AO4" s="20">
         <v>34</v>
       </c>
-      <c r="AP4" s="33">
+      <c r="AP4" s="20">
         <v>35</v>
       </c>
-      <c r="AQ4" s="33">
+      <c r="AQ4" s="20">
         <v>36</v>
       </c>
-      <c r="AR4" s="33">
+      <c r="AR4" s="20">
         <v>37</v>
       </c>
-      <c r="AS4" s="33">
+      <c r="AS4" s="20">
         <v>38</v>
       </c>
-      <c r="AT4" s="33">
+      <c r="AT4" s="20">
         <v>39</v>
       </c>
-      <c r="AU4" s="33">
+      <c r="AU4" s="20">
         <v>40</v>
       </c>
-      <c r="AV4" s="33">
+      <c r="AV4" s="20">
         <v>41</v>
       </c>
-      <c r="AW4" s="33">
+      <c r="AW4" s="20">
         <v>42</v>
       </c>
-      <c r="AX4" s="33">
+      <c r="AX4" s="20">
         <v>43</v>
       </c>
-      <c r="AY4" s="33">
+      <c r="AY4" s="20">
         <v>44</v>
       </c>
-      <c r="AZ4" s="33">
+      <c r="AZ4" s="20">
         <v>45</v>
       </c>
-      <c r="BA4" s="33">
+      <c r="BA4" s="20">
         <v>46</v>
       </c>
-      <c r="BB4" s="33">
+      <c r="BB4" s="20">
         <v>47</v>
       </c>
-      <c r="BC4" s="33">
+      <c r="BC4" s="20">
         <v>48</v>
       </c>
-      <c r="BD4" s="33">
+      <c r="BD4" s="20">
         <v>49</v>
       </c>
-      <c r="BE4" s="33">
+      <c r="BE4" s="20">
         <v>50</v>
       </c>
-      <c r="BF4" s="33">
+      <c r="BF4" s="20">
         <v>51</v>
       </c>
-      <c r="BG4" s="33">
+      <c r="BG4" s="20">
         <v>52</v>
       </c>
-      <c r="BH4" s="33">
+      <c r="BH4" s="20">
         <v>53</v>
       </c>
-      <c r="BI4" s="33">
+      <c r="BI4" s="20">
         <v>54</v>
       </c>
-      <c r="BJ4" s="33">
+      <c r="BJ4" s="20">
         <v>55</v>
       </c>
-      <c r="BK4" s="33">
+      <c r="BK4" s="20">
         <v>56</v>
       </c>
-      <c r="BL4" s="33">
+      <c r="BL4" s="20">
         <v>57</v>
       </c>
-      <c r="BM4" s="33">
+      <c r="BM4" s="20">
         <v>58</v>
       </c>
-      <c r="BN4" s="33">
+      <c r="BN4" s="20">
         <v>59</v>
       </c>
-      <c r="BO4" s="33">
+      <c r="BO4" s="20">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="7">
@@ -1412,7 +1412,7 @@
       <c r="F5" s="7">
         <v>2</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="22">
         <v>1</v>
       </c>
       <c r="H5" s="7"/>
@@ -1477,7 +1477,7 @@
       <c r="BO5" s="8"/>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="7">
@@ -1492,7 +1492,7 @@
       <c r="F6" s="7">
         <v>3</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="22">
         <v>1</v>
       </c>
       <c r="H6" s="7"/>
@@ -1557,7 +1557,7 @@
       <c r="BO6" s="8"/>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="7">
@@ -1572,7 +1572,7 @@
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="22">
         <v>1</v>
       </c>
       <c r="H7" s="7"/>
@@ -1637,7 +1637,7 @@
       <c r="BO7" s="8"/>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="7">
@@ -1652,7 +1652,7 @@
       <c r="F8" s="7">
         <v>14</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="22">
         <v>1</v>
       </c>
       <c r="H8" s="7"/>
@@ -1717,7 +1717,7 @@
       <c r="BO8" s="8"/>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="7">
@@ -1732,7 +1732,7 @@
       <c r="F9" s="7">
         <v>7</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="22">
         <v>0.5</v>
       </c>
       <c r="H9" s="7"/>
@@ -1797,7 +1797,7 @@
       <c r="BO9" s="8"/>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="7">
@@ -1812,7 +1812,7 @@
       <c r="F10" s="7">
         <v>14</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="22">
         <v>1</v>
       </c>
       <c r="H10" s="7"/>
@@ -1877,7 +1877,7 @@
       <c r="BO10" s="8"/>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="7">
@@ -1892,7 +1892,7 @@
       <c r="F11" s="7">
         <v>7</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="22">
         <v>0.05</v>
       </c>
       <c r="H11" s="7"/>
@@ -1957,7 +1957,7 @@
       <c r="BO11" s="8"/>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="7">
@@ -1972,7 +1972,7 @@
       <c r="F12" s="7">
         <v>2</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="22">
         <v>0</v>
       </c>
       <c r="H12" s="7"/>
@@ -2037,10 +2037,10 @@
       <c r="BO12" s="8"/>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="23">
         <v>50</v>
       </c>
       <c r="D13" s="7">
@@ -2052,7 +2052,7 @@
       <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="22">
         <v>0</v>
       </c>
       <c r="H13" s="7"/>
@@ -2117,7 +2117,7 @@
       <c r="BO13" s="8"/>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="7">
@@ -2132,7 +2132,7 @@
       <c r="F14" s="7">
         <v>2</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="22">
         <v>0</v>
       </c>
       <c r="H14" s="7"/>
@@ -2197,7 +2197,7 @@
       <c r="BO14" s="8"/>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="7">
@@ -2212,7 +2212,7 @@
       <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="22">
         <v>0</v>
       </c>
       <c r="H15" s="7"/>
@@ -2277,7 +2277,7 @@
       <c r="BO15" s="8"/>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="7">
@@ -2292,7 +2292,7 @@
       <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="22">
         <v>0</v>
       </c>
       <c r="H16" s="7"/>
@@ -2357,7 +2357,7 @@
       <c r="BO16" s="8"/>
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="7">
@@ -2372,7 +2372,7 @@
       <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="22">
         <v>0</v>
       </c>
       <c r="H17" s="7"/>
@@ -2437,7 +2437,7 @@
       <c r="BO17" s="8"/>
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="7">
@@ -2452,7 +2452,7 @@
       <c r="F18" s="7">
         <v>3</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="22">
         <v>0</v>
       </c>
       <c r="H18" s="7"/>
@@ -2517,7 +2517,7 @@
       <c r="BO18" s="8"/>
     </row>
     <row r="19" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="7">
@@ -2532,7 +2532,7 @@
       <c r="F19" s="7">
         <v>20</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="22">
         <v>0.55000000000000004</v>
       </c>
       <c r="H19" s="7"/>
@@ -2596,8 +2596,8 @@
       <c r="BN19" s="8"/>
       <c r="BO19" s="8"/>
     </row>
-    <row r="20" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="34" t="s">
+    <row r="20" spans="2:67" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="7">
@@ -2612,7 +2612,7 @@
       <c r="F20" s="7">
         <v>50</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="22">
         <v>0.3</v>
       </c>
       <c r="H20" s="7"/>
@@ -2676,549 +2676,285 @@
       <c r="BN20" s="8"/>
       <c r="BO20" s="8"/>
     </row>
-    <row r="23" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="34"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="8"/>
-      <c r="AO23" s="8"/>
-      <c r="AP23" s="8"/>
-      <c r="AQ23" s="8"/>
-      <c r="AR23" s="8"/>
-      <c r="AS23" s="8"/>
-      <c r="AT23" s="8"/>
-      <c r="AU23" s="8"/>
-      <c r="AV23" s="8"/>
-      <c r="AW23" s="8"/>
-      <c r="AX23" s="8"/>
-      <c r="AY23" s="8"/>
-      <c r="AZ23" s="8"/>
-      <c r="BA23" s="8"/>
-      <c r="BB23" s="8"/>
-      <c r="BC23" s="8"/>
-      <c r="BD23" s="8"/>
-      <c r="BE23" s="8"/>
-      <c r="BF23" s="8"/>
-      <c r="BG23" s="8"/>
-      <c r="BH23" s="8"/>
-      <c r="BI23" s="8"/>
-      <c r="BJ23" s="8"/>
-      <c r="BK23" s="8"/>
-      <c r="BL23" s="8"/>
-      <c r="BM23" s="8"/>
-      <c r="BN23" s="8"/>
-      <c r="BO23" s="8"/>
+    <row r="21" spans="2:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
     </row>
-    <row r="24" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="34"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="8"/>
-      <c r="AP24" s="8"/>
-      <c r="AQ24" s="8"/>
-      <c r="AR24" s="8"/>
-      <c r="AS24" s="8"/>
-      <c r="AT24" s="8"/>
-      <c r="AU24" s="8"/>
-      <c r="AV24" s="8"/>
-      <c r="AW24" s="8"/>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="8"/>
-      <c r="AZ24" s="8"/>
-      <c r="BA24" s="8"/>
-      <c r="BB24" s="8"/>
-      <c r="BC24" s="8"/>
-      <c r="BD24" s="8"/>
-      <c r="BE24" s="8"/>
-      <c r="BF24" s="8"/>
-      <c r="BG24" s="8"/>
-      <c r="BH24" s="8"/>
-      <c r="BI24" s="8"/>
-      <c r="BJ24" s="8"/>
-      <c r="BK24" s="8"/>
-      <c r="BL24" s="8"/>
-      <c r="BM24" s="8"/>
-      <c r="BN24" s="8"/>
-      <c r="BO24" s="8"/>
+    <row r="22" spans="2:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
     </row>
-    <row r="25" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="34"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="8"/>
-      <c r="AO25" s="8"/>
-      <c r="AP25" s="8"/>
-      <c r="AQ25" s="8"/>
-      <c r="AR25" s="8"/>
-      <c r="AS25" s="8"/>
-      <c r="AT25" s="8"/>
-      <c r="AU25" s="8"/>
-      <c r="AV25" s="8"/>
-      <c r="AW25" s="8"/>
-      <c r="AX25" s="8"/>
-      <c r="AY25" s="8"/>
-      <c r="AZ25" s="8"/>
-      <c r="BA25" s="8"/>
-      <c r="BB25" s="8"/>
-      <c r="BC25" s="8"/>
-      <c r="BD25" s="8"/>
-      <c r="BE25" s="8"/>
-      <c r="BF25" s="8"/>
-      <c r="BG25" s="8"/>
-      <c r="BH25" s="8"/>
-      <c r="BI25" s="8"/>
-      <c r="BJ25" s="8"/>
-      <c r="BK25" s="8"/>
-      <c r="BL25" s="8"/>
-      <c r="BM25" s="8"/>
-      <c r="BN25" s="8"/>
-      <c r="BO25" s="8"/>
+    <row r="23" spans="2:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
     </row>
-    <row r="26" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="34"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
-      <c r="AM26" s="8"/>
-      <c r="AN26" s="8"/>
-      <c r="AO26" s="8"/>
-      <c r="AP26" s="8"/>
-      <c r="AQ26" s="8"/>
-      <c r="AR26" s="8"/>
-      <c r="AS26" s="8"/>
-      <c r="AT26" s="8"/>
-      <c r="AU26" s="8"/>
-      <c r="AV26" s="8"/>
-      <c r="AW26" s="8"/>
-      <c r="AX26" s="8"/>
-      <c r="AY26" s="8"/>
-      <c r="AZ26" s="8"/>
-      <c r="BA26" s="8"/>
-      <c r="BB26" s="8"/>
-      <c r="BC26" s="8"/>
-      <c r="BD26" s="8"/>
-      <c r="BE26" s="8"/>
-      <c r="BF26" s="8"/>
-      <c r="BG26" s="8"/>
-      <c r="BH26" s="8"/>
-      <c r="BI26" s="8"/>
-      <c r="BJ26" s="8"/>
-      <c r="BK26" s="8"/>
-      <c r="BL26" s="8"/>
-      <c r="BM26" s="8"/>
-      <c r="BN26" s="8"/>
-      <c r="BO26" s="8"/>
+    <row r="24" spans="2:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
     </row>
-    <row r="27" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="8"/>
-      <c r="AP27" s="8"/>
-      <c r="AQ27" s="8"/>
-      <c r="AR27" s="8"/>
-      <c r="AS27" s="8"/>
-      <c r="AT27" s="8"/>
-      <c r="AU27" s="8"/>
-      <c r="AV27" s="8"/>
-      <c r="AW27" s="8"/>
-      <c r="AX27" s="8"/>
-      <c r="AY27" s="8"/>
-      <c r="AZ27" s="8"/>
-      <c r="BA27" s="8"/>
-      <c r="BB27" s="8"/>
-      <c r="BC27" s="8"/>
-      <c r="BD27" s="8"/>
-      <c r="BE27" s="8"/>
-      <c r="BF27" s="8"/>
-      <c r="BG27" s="8"/>
-      <c r="BH27" s="8"/>
-      <c r="BI27" s="8"/>
-      <c r="BJ27" s="8"/>
-      <c r="BK27" s="8"/>
-      <c r="BL27" s="8"/>
-      <c r="BM27" s="8"/>
-      <c r="BN27" s="8"/>
-      <c r="BO27" s="8"/>
+    <row r="25" spans="2:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
     </row>
-    <row r="28" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="34"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
-      <c r="AM28" s="8"/>
-      <c r="AN28" s="8"/>
-      <c r="AO28" s="8"/>
-      <c r="AP28" s="8"/>
-      <c r="AQ28" s="8"/>
-      <c r="AR28" s="8"/>
-      <c r="AS28" s="8"/>
-      <c r="AT28" s="8"/>
-      <c r="AU28" s="8"/>
-      <c r="AV28" s="8"/>
-      <c r="AW28" s="8"/>
-      <c r="AX28" s="8"/>
-      <c r="AY28" s="8"/>
-      <c r="AZ28" s="8"/>
-      <c r="BA28" s="8"/>
-      <c r="BB28" s="8"/>
-      <c r="BC28" s="8"/>
-      <c r="BD28" s="8"/>
-      <c r="BE28" s="8"/>
-      <c r="BF28" s="8"/>
-      <c r="BG28" s="8"/>
-      <c r="BH28" s="8"/>
-      <c r="BI28" s="8"/>
-      <c r="BJ28" s="8"/>
-      <c r="BK28" s="8"/>
-      <c r="BL28" s="8"/>
-      <c r="BM28" s="8"/>
-      <c r="BN28" s="8"/>
-      <c r="BO28" s="8"/>
+    <row r="26" spans="2:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
     </row>
-    <row r="29" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="34"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
-      <c r="AK29" s="8"/>
-      <c r="AL29" s="8"/>
-      <c r="AM29" s="8"/>
-      <c r="AN29" s="8"/>
-      <c r="AO29" s="8"/>
-      <c r="AP29" s="8"/>
-      <c r="AQ29" s="8"/>
-      <c r="AR29" s="8"/>
-      <c r="AS29" s="8"/>
-      <c r="AT29" s="8"/>
-      <c r="AU29" s="8"/>
-      <c r="AV29" s="8"/>
-      <c r="AW29" s="8"/>
-      <c r="AX29" s="8"/>
-      <c r="AY29" s="8"/>
-      <c r="AZ29" s="8"/>
-      <c r="BA29" s="8"/>
-      <c r="BB29" s="8"/>
-      <c r="BC29" s="8"/>
-      <c r="BD29" s="8"/>
-      <c r="BE29" s="8"/>
-      <c r="BF29" s="8"/>
-      <c r="BG29" s="8"/>
-      <c r="BH29" s="8"/>
-      <c r="BI29" s="8"/>
-      <c r="BJ29" s="8"/>
-      <c r="BK29" s="8"/>
-      <c r="BL29" s="8"/>
-      <c r="BM29" s="8"/>
-      <c r="BN29" s="8"/>
-      <c r="BO29" s="8"/>
+    <row r="27" spans="2:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
     </row>
-    <row r="30" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="34"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
-      <c r="AK30" s="8"/>
-      <c r="AL30" s="8"/>
-      <c r="AM30" s="8"/>
-      <c r="AN30" s="8"/>
-      <c r="AO30" s="8"/>
-      <c r="AP30" s="8"/>
-      <c r="AQ30" s="8"/>
-      <c r="AR30" s="8"/>
-      <c r="AS30" s="8"/>
-      <c r="AT30" s="8"/>
-      <c r="AU30" s="8"/>
-      <c r="AV30" s="8"/>
-      <c r="AW30" s="8"/>
-      <c r="AX30" s="8"/>
-      <c r="AY30" s="8"/>
-      <c r="AZ30" s="8"/>
-      <c r="BA30" s="8"/>
-      <c r="BB30" s="8"/>
-      <c r="BC30" s="8"/>
-      <c r="BD30" s="8"/>
-      <c r="BE30" s="8"/>
-      <c r="BF30" s="8"/>
-      <c r="BG30" s="8"/>
-      <c r="BH30" s="8"/>
-      <c r="BI30" s="8"/>
-      <c r="BJ30" s="8"/>
-      <c r="BK30" s="8"/>
-      <c r="BL30" s="8"/>
-      <c r="BM30" s="8"/>
-      <c r="BN30" s="8"/>
-      <c r="BO30" s="8"/>
+    <row r="28" spans="2:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+    </row>
+    <row r="29" spans="2:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+    </row>
+    <row r="30" spans="2:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3235,7 +2971,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H23:BO30 H5:BO20">
+  <conditionalFormatting sqref="H5:BO20">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
